--- a/BackTest/2020-01-19 BackTest WPX.xlsx
+++ b/BackTest/2020-01-19 BackTest WPX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -4147,7 +4147,7 @@
         <v>-1426406.464209535</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-1411306.935709535</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-1420658.165509535</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-1420621.899209535</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-1421345.392809535</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-1419433.817409535</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-1419433.817409535</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-1425892.121809535</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-1444998.361209536</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-1463344.816409535</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-1443568.194009535</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-1443348.320609536</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-1443497.350009535</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-1443497.350009535</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-1443497.350009535</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-1445390.313409535</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-1445390.313409535</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -12199,11 +12199,17 @@
         <v>-2559989.892962538</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>129.2</v>
+      </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12232,11 +12238,17 @@
         <v>-2590719.946962538</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>128.4</v>
+      </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12265,11 +12277,17 @@
         <v>-2639447.287162538</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>128.2</v>
+      </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12298,11 +12316,17 @@
         <v>-2654925.191262538</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>128</v>
+      </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12331,11 +12355,17 @@
         <v>-2662035.916122664</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>127.5</v>
+      </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12364,11 +12394,17 @@
         <v>-2665903.261522664</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>127.4</v>
+      </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12397,15 +12433,17 @@
         <v>-2674496.017422664</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I364" t="n">
         <v>127</v>
       </c>
-      <c r="J364" t="n">
-        <v>127</v>
-      </c>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12434,17 +12472,15 @@
         <v>-2715033.112422664</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I365" t="n">
         <v>126.6</v>
       </c>
-      <c r="J365" t="n">
-        <v>127</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L365" t="n">
@@ -12475,14 +12511,12 @@
         <v>-2733944.774522664</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I366" t="n">
         <v>126.3</v>
       </c>
-      <c r="J366" t="n">
-        <v>127</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12516,14 +12550,12 @@
         <v>-2733944.774522664</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I367" t="n">
         <v>126</v>
       </c>
-      <c r="J367" t="n">
-        <v>127</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12557,14 +12589,12 @@
         <v>-2609989.561922664</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I368" t="n">
         <v>126</v>
       </c>
-      <c r="J368" t="n">
-        <v>127</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12598,14 +12628,12 @@
         <v>-2601106.592322664</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I369" t="n">
         <v>126.1</v>
       </c>
-      <c r="J369" t="n">
-        <v>127</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12639,14 +12667,12 @@
         <v>-2655200.626222664</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I370" t="n">
         <v>126.2</v>
       </c>
-      <c r="J370" t="n">
-        <v>127</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12680,14 +12706,12 @@
         <v>-2629953.236222664</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I371" t="n">
         <v>126.1</v>
       </c>
-      <c r="J371" t="n">
-        <v>127</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12721,14 +12745,12 @@
         <v>-2629953.236222664</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I372" t="n">
         <v>127</v>
       </c>
-      <c r="J372" t="n">
-        <v>127</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12762,14 +12784,12 @@
         <v>-2629953.236222664</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I373" t="n">
         <v>127</v>
       </c>
-      <c r="J373" t="n">
-        <v>127</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12803,14 +12823,12 @@
         <v>-2625675.638690995</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I374" t="n">
         <v>127</v>
       </c>
-      <c r="J374" t="n">
-        <v>127</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12844,14 +12862,12 @@
         <v>-2631933.280590995</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I375" t="n">
         <v>130</v>
       </c>
-      <c r="J375" t="n">
-        <v>127</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12885,14 +12901,12 @@
         <v>-2566005.080090995</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I376" t="n">
         <v>129.9</v>
       </c>
-      <c r="J376" t="n">
-        <v>127</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12926,14 +12940,12 @@
         <v>-2502225.834390995</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I377" t="n">
         <v>132</v>
       </c>
-      <c r="J377" t="n">
-        <v>127</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12967,14 +12979,12 @@
         <v>-2502225.834390995</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I378" t="n">
         <v>132.7</v>
       </c>
-      <c r="J378" t="n">
-        <v>127</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13008,14 +13018,12 @@
         <v>-2502225.834390995</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I379" t="n">
         <v>132.7</v>
       </c>
-      <c r="J379" t="n">
-        <v>127</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13049,14 +13057,12 @@
         <v>-2474920.334662847</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I380" t="n">
         <v>132.7</v>
       </c>
-      <c r="J380" t="n">
-        <v>127</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13090,14 +13096,12 @@
         <v>-2419102.843890995</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I381" t="n">
         <v>135</v>
       </c>
-      <c r="J381" t="n">
-        <v>127</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13131,12 +13135,12 @@
         <v>-2406144.678090995</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>127</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13173,9 +13177,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>127</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13212,9 +13214,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>127</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13251,9 +13251,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>127</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13290,9 +13288,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>127</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13329,9 +13325,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>127</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13368,9 +13362,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>127</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13407,9 +13399,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>127</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13446,9 +13436,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>127</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13485,9 +13473,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>127</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13524,9 +13510,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>127</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13563,9 +13547,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>127</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13602,9 +13584,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>127</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13641,9 +13621,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>127</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13680,9 +13658,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>127</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13719,9 +13695,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>127</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13758,9 +13732,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>127</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13797,9 +13769,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>127</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13836,9 +13806,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>127</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13875,9 +13843,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>127</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13914,9 +13880,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>127</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13953,9 +13917,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>127</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13992,9 +13954,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>127</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14031,9 +13991,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>127</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14070,9 +14028,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>127</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14109,9 +14065,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>127</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14148,9 +14102,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>127</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14187,9 +14139,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>127</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14226,9 +14176,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>127</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14265,9 +14213,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>127</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14304,9 +14250,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>127</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14343,9 +14287,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>127</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14382,9 +14324,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>127</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14421,9 +14361,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>127</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14460,9 +14398,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>127</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14496,12 +14432,12 @@
         <v>-2485065.501293636</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>127</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14538,9 +14474,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>127</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14577,9 +14511,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>127</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14616,9 +14548,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>127</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14655,9 +14585,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>127</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14694,9 +14622,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>127</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14733,9 +14659,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>127</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14772,9 +14696,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>127</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14811,9 +14733,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>127</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14850,9 +14770,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>127</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14889,9 +14807,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>127</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14928,9 +14844,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>127</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14967,9 +14881,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>127</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15006,9 +14918,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>127</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15045,9 +14955,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>127</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15084,9 +14992,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>127</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15123,9 +15029,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>127</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15162,9 +15066,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>127</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15201,9 +15103,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>127</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15240,9 +15140,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>127</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15279,9 +15177,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>127</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15318,9 +15214,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>127</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15357,9 +15251,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>127</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15396,9 +15288,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>127</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15435,9 +15325,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>127</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15474,9 +15362,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>127</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15513,9 +15399,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>127</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15552,9 +15436,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>127</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15591,9 +15473,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>127</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15630,9 +15510,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>127</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15669,9 +15547,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>127</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15708,9 +15584,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>127</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15747,9 +15621,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>127</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15786,9 +15658,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>127</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15825,9 +15695,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>127</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15864,9 +15732,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>127</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15903,9 +15769,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>127</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15942,9 +15806,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>127</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15981,9 +15843,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>127</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16020,9 +15880,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>127</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16059,9 +15917,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>127</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16098,9 +15954,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>127</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16137,9 +15991,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>127</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16176,9 +16028,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>127</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16215,9 +16065,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>127</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16254,9 +16102,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>127</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16293,9 +16139,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>127</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16332,9 +16176,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>127</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16371,9 +16213,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>127</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16410,9 +16250,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>127</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16449,9 +16287,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>127</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16488,9 +16324,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>127</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16527,9 +16361,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>127</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16566,9 +16398,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>127</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16605,9 +16435,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>127</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16644,9 +16472,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>127</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16683,9 +16509,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>127</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16722,9 +16546,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>127</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16761,9 +16583,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>127</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16800,9 +16620,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>127</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16839,9 +16657,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>127</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16878,9 +16694,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>127</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16917,9 +16731,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>127</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16956,9 +16768,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>127</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16995,9 +16805,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>127</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17034,9 +16842,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>127</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17073,9 +16879,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>127</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17112,9 +16916,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>127</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17151,9 +16953,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>127</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17190,9 +16990,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>127</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17229,9 +17027,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>127</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17268,9 +17064,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>127</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17307,9 +17101,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>127</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17346,9 +17138,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>127</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17385,9 +17175,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>127</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17424,9 +17212,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>127</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17463,9 +17249,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>127</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17502,9 +17286,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>127</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17541,9 +17323,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>127</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17580,9 +17360,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>127</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17619,9 +17397,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>127</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17658,9 +17434,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>127</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17697,9 +17471,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>127</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17736,9 +17508,7 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>127</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17775,9 +17545,7 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>127</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17814,9 +17582,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>127</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17853,9 +17619,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>127</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17892,9 +17656,7 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>127</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17931,9 +17693,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>127</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17970,9 +17730,7 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>127</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18009,9 +17767,7 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>127</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18048,9 +17804,7 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>127</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18087,9 +17841,7 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>127</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18126,9 +17878,7 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>127</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18165,9 +17915,7 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>127</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18204,9 +17952,7 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>127</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18243,9 +17989,7 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>127</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18282,9 +18026,7 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>127</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18321,9 +18063,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>127</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18360,9 +18100,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>127</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18399,9 +18137,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>127</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18438,9 +18174,7 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>127</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18477,9 +18211,7 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>127</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18516,9 +18248,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>127</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18555,9 +18285,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>127</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18594,9 +18322,7 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>127</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18633,9 +18359,7 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>127</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18672,9 +18396,7 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>127</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18711,9 +18433,7 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>127</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18750,9 +18470,7 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>127</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18789,9 +18507,7 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>127</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18828,9 +18544,7 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>127</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18867,9 +18581,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>127</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18906,9 +18618,7 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>127</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18945,9 +18655,7 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>127</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18984,9 +18692,7 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>127</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19023,9 +18729,7 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>127</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19062,9 +18766,7 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>127</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19101,9 +18803,7 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>127</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19140,9 +18840,7 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>127</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19179,9 +18877,7 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>127</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19218,9 +18914,7 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>127</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19257,9 +18951,7 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>127</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19296,9 +18988,7 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>127</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19335,9 +19025,7 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>127</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19374,9 +19062,7 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>127</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19413,9 +19099,7 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>127</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19452,9 +19136,7 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>127</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19491,9 +19173,7 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>127</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19530,9 +19210,7 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>127</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19569,9 +19247,7 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>127</v>
-      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19608,9 +19284,7 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>127</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19647,9 +19321,7 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>127</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19686,9 +19358,7 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>127</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19725,9 +19395,7 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>127</v>
-      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19764,9 +19432,7 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>127</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19803,9 +19469,7 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>127</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19842,9 +19506,7 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>127</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19881,9 +19543,7 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>127</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19920,9 +19580,7 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>127</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19959,9 +19617,7 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>127</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19998,9 +19654,7 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>127</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20037,9 +19691,7 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>127</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20076,9 +19728,7 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>127</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20115,9 +19765,7 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>127</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20154,9 +19802,7 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>127</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20193,9 +19839,7 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>127</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20232,9 +19876,7 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>127</v>
-      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20271,9 +19913,7 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>127</v>
-      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20310,9 +19950,7 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>127</v>
-      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20349,9 +19987,7 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>127</v>
-      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20388,9 +20024,7 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>127</v>
-      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20427,9 +20061,7 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>127</v>
-      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20466,9 +20098,7 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>127</v>
-      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20505,9 +20135,7 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>127</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20544,9 +20172,7 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>127</v>
-      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20583,9 +20209,7 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>127</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20622,9 +20246,7 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>127</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20661,9 +20283,7 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>127</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20700,9 +20320,7 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>127</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20739,9 +20357,7 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>127</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20778,9 +20394,7 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>127</v>
-      </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20817,9 +20431,7 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>127</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20856,9 +20468,7 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>127</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20895,9 +20505,7 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>127</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20934,9 +20542,7 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>127</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20973,9 +20579,7 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>127</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21012,9 +20616,7 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>127</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21051,9 +20653,7 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>127</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21090,9 +20690,7 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>127</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21129,9 +20727,7 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>127</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21168,9 +20764,7 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>127</v>
-      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21207,9 +20801,7 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>127</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21246,9 +20838,7 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>127</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21285,9 +20875,7 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>127</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21324,9 +20912,7 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>127</v>
-      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21363,9 +20949,7 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>127</v>
-      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21402,9 +20986,7 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>127</v>
-      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21441,9 +21023,7 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>127</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21480,9 +21060,7 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>127</v>
-      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21519,9 +21097,7 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>127</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21558,9 +21134,7 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>127</v>
-      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21597,9 +21171,7 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>127</v>
-      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21636,9 +21208,7 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>127</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21675,9 +21245,7 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>127</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21714,9 +21282,7 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>127</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21753,9 +21319,7 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>127</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21792,9 +21356,7 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>127</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21831,9 +21393,7 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>127</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21870,9 +21430,7 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>127</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21909,9 +21467,7 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>127</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21948,9 +21504,7 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>127</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21987,9 +21541,7 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>127</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22026,9 +21578,7 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>127</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22065,9 +21615,7 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>127</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22104,9 +21652,7 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>127</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22143,9 +21689,7 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>127</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22182,9 +21726,7 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>127</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22221,9 +21763,7 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>127</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22260,9 +21800,7 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>127</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22299,9 +21837,7 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>127</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22338,9 +21874,7 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>127</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22377,9 +21911,7 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>127</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22416,9 +21948,7 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>127</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22455,9 +21985,7 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>127</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22494,9 +22022,7 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>127</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22533,9 +22059,7 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>127</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22572,9 +22096,7 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>127</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22611,9 +22133,7 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>127</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22650,9 +22170,7 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>127</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22689,9 +22207,7 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>127</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22728,9 +22244,7 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>127</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22767,9 +22281,7 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>127</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22806,9 +22318,7 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>127</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22845,9 +22355,7 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>127</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22884,9 +22392,7 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>127</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22923,9 +22429,7 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>127</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22962,9 +22466,7 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>127</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23001,9 +22503,7 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>127</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23040,9 +22540,7 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>127</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23079,9 +22577,7 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>127</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23118,9 +22614,7 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>127</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23157,9 +22651,7 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>127</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23196,9 +22688,7 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>127</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23235,9 +22725,7 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>127</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23274,9 +22762,7 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>127</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23313,9 +22799,7 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>127</v>
-      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23352,9 +22836,7 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>127</v>
-      </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23391,9 +22873,7 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>127</v>
-      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23430,9 +22910,7 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>127</v>
-      </c>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23469,9 +22947,7 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>127</v>
-      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23508,9 +22984,7 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>127</v>
-      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23547,9 +23021,7 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>127</v>
-      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23586,9 +23058,7 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>127</v>
-      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23625,9 +23095,7 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>127</v>
-      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23664,9 +23132,7 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>127</v>
-      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23703,9 +23169,7 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>127</v>
-      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23742,9 +23206,7 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>127</v>
-      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23781,9 +23243,7 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>127</v>
-      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23820,9 +23280,7 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>127</v>
-      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23859,9 +23317,7 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>127</v>
-      </c>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23898,9 +23354,7 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>127</v>
-      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23937,9 +23391,7 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>127</v>
-      </c>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23976,9 +23428,7 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>127</v>
-      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24015,9 +23465,7 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>127</v>
-      </c>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24054,9 +23502,7 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>127</v>
-      </c>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24093,9 +23539,7 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>127</v>
-      </c>
+      <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24132,9 +23576,7 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>127</v>
-      </c>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24171,9 +23613,7 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>127</v>
-      </c>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24210,9 +23650,7 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>127</v>
-      </c>
+      <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24249,9 +23687,7 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>127</v>
-      </c>
+      <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24288,9 +23724,7 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>127</v>
-      </c>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24327,9 +23761,7 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>127</v>
-      </c>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24366,9 +23798,7 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>127</v>
-      </c>
+      <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24405,9 +23835,7 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>127</v>
-      </c>
+      <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24444,9 +23872,7 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>127</v>
-      </c>
+      <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24483,9 +23909,7 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>127</v>
-      </c>
+      <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24522,9 +23946,7 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>127</v>
-      </c>
+      <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24561,9 +23983,7 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>127</v>
-      </c>
+      <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24600,9 +24020,7 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>127</v>
-      </c>
+      <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24639,9 +24057,7 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>127</v>
-      </c>
+      <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24678,9 +24094,7 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>127</v>
-      </c>
+      <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24717,9 +24131,7 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>127</v>
-      </c>
+      <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24756,9 +24168,7 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>127</v>
-      </c>
+      <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24795,9 +24205,7 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>127</v>
-      </c>
+      <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24834,9 +24242,7 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>127</v>
-      </c>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24873,9 +24279,7 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>127</v>
-      </c>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24912,9 +24316,7 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>127</v>
-      </c>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24951,9 +24353,7 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>127</v>
-      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24990,9 +24390,7 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>127</v>
-      </c>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25029,9 +24427,7 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>127</v>
-      </c>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25068,9 +24464,7 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>127</v>
-      </c>
+      <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25107,9 +24501,7 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>127</v>
-      </c>
+      <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25146,9 +24538,7 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>127</v>
-      </c>
+      <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25185,9 +24575,7 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>127</v>
-      </c>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25224,9 +24612,7 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>127</v>
-      </c>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25263,9 +24649,7 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>127</v>
-      </c>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25302,9 +24686,7 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>127</v>
-      </c>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25341,9 +24723,7 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>127</v>
-      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25380,9 +24760,7 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>127</v>
-      </c>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25419,9 +24797,7 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>127</v>
-      </c>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25458,9 +24834,7 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>127</v>
-      </c>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25497,9 +24871,7 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>127</v>
-      </c>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25536,9 +24908,7 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>127</v>
-      </c>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25575,9 +24945,7 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>127</v>
-      </c>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25614,9 +24982,7 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>127</v>
-      </c>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25653,9 +25019,7 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>127</v>
-      </c>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25692,9 +25056,7 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>127</v>
-      </c>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25731,9 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>127</v>
-      </c>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25770,9 +25130,7 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>127</v>
-      </c>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25809,9 +25167,7 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>127</v>
-      </c>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25848,9 +25204,7 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>127</v>
-      </c>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25887,9 +25241,7 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>127</v>
-      </c>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25926,9 +25278,7 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>127</v>
-      </c>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25965,9 +25315,7 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>127</v>
-      </c>
+      <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26004,9 +25352,7 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>127</v>
-      </c>
+      <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26043,9 +25389,7 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>127</v>
-      </c>
+      <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26082,9 +25426,7 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>127</v>
-      </c>
+      <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26121,9 +25463,7 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>127</v>
-      </c>
+      <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26160,9 +25500,7 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>127</v>
-      </c>
+      <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26199,9 +25537,7 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>127</v>
-      </c>
+      <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26238,9 +25574,7 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>127</v>
-      </c>
+      <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26277,9 +25611,7 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>127</v>
-      </c>
+      <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26316,9 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>127</v>
-      </c>
+      <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26355,9 +25685,7 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>127</v>
-      </c>
+      <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26394,9 +25722,7 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>127</v>
-      </c>
+      <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26433,9 +25759,7 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>127</v>
-      </c>
+      <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26472,9 +25796,7 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>127</v>
-      </c>
+      <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26511,9 +25833,7 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>127</v>
-      </c>
+      <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26550,9 +25870,7 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>127</v>
-      </c>
+      <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26589,9 +25907,7 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>127</v>
-      </c>
+      <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26628,9 +25944,7 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>127</v>
-      </c>
+      <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26667,9 +25981,7 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>127</v>
-      </c>
+      <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26706,9 +26018,7 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>127</v>
-      </c>
+      <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26745,9 +26055,7 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>127</v>
-      </c>
+      <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26784,9 +26092,7 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>127</v>
-      </c>
+      <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26823,9 +26129,7 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>127</v>
-      </c>
+      <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26862,9 +26166,7 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>127</v>
-      </c>
+      <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26901,9 +26203,7 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>127</v>
-      </c>
+      <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26940,9 +26240,7 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>127</v>
-      </c>
+      <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26979,9 +26277,7 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>127</v>
-      </c>
+      <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27018,9 +26314,7 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>127</v>
-      </c>
+      <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27057,9 +26351,7 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>127</v>
-      </c>
+      <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27096,9 +26388,7 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>127</v>
-      </c>
+      <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27135,9 +26425,7 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>127</v>
-      </c>
+      <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27174,9 +26462,7 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>127</v>
-      </c>
+      <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27213,9 +26499,7 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>127</v>
-      </c>
+      <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27252,9 +26536,7 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>127</v>
-      </c>
+      <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27291,9 +26573,7 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>127</v>
-      </c>
+      <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27330,9 +26610,7 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>127</v>
-      </c>
+      <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27369,9 +26647,7 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>127</v>
-      </c>
+      <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27408,9 +26684,7 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>127</v>
-      </c>
+      <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27447,9 +26721,7 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>127</v>
-      </c>
+      <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27486,9 +26758,7 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>127</v>
-      </c>
+      <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27525,9 +26795,7 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>127</v>
-      </c>
+      <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27564,9 +26832,7 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>127</v>
-      </c>
+      <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27603,9 +26869,7 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>127</v>
-      </c>
+      <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27642,9 +26906,7 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>127</v>
-      </c>
+      <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27681,9 +26943,7 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>127</v>
-      </c>
+      <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27720,9 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>127</v>
-      </c>
+      <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27759,9 +27017,7 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>127</v>
-      </c>
+      <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27798,9 +27054,7 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>127</v>
-      </c>
+      <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27837,9 +27091,7 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>127</v>
-      </c>
+      <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27876,9 +27128,7 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>127</v>
-      </c>
+      <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27915,9 +27165,7 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>127</v>
-      </c>
+      <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27954,9 +27202,7 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>127</v>
-      </c>
+      <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27993,9 +27239,7 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>127</v>
-      </c>
+      <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28032,9 +27276,7 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>127</v>
-      </c>
+      <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28071,9 +27313,7 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>127</v>
-      </c>
+      <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28110,9 +27350,7 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>127</v>
-      </c>
+      <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28149,9 +27387,7 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>127</v>
-      </c>
+      <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28188,9 +27424,7 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>127</v>
-      </c>
+      <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28227,9 +27461,7 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>127</v>
-      </c>
+      <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28266,9 +27498,7 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
-        <v>127</v>
-      </c>
+      <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28305,9 +27535,7 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>127</v>
-      </c>
+      <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28344,9 +27572,7 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>127</v>
-      </c>
+      <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28383,9 +27609,7 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>127</v>
-      </c>
+      <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28422,9 +27646,7 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>127</v>
-      </c>
+      <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28461,9 +27683,7 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="n">
-        <v>127</v>
-      </c>
+      <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28500,9 +27720,7 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="n">
-        <v>127</v>
-      </c>
+      <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28539,9 +27757,7 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="n">
-        <v>127</v>
-      </c>
+      <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28578,9 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="n">
-        <v>127</v>
-      </c>
+      <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28617,9 +27831,7 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="n">
-        <v>127</v>
-      </c>
+      <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28656,9 +27868,7 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="n">
-        <v>127</v>
-      </c>
+      <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28695,9 +27905,7 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="n">
-        <v>127</v>
-      </c>
+      <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28734,9 +27942,7 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="n">
-        <v>127</v>
-      </c>
+      <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28773,9 +27979,7 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="n">
-        <v>127</v>
-      </c>
+      <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28812,9 +28016,7 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="n">
-        <v>127</v>
-      </c>
+      <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28851,9 +28053,7 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="n">
-        <v>127</v>
-      </c>
+      <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28890,9 +28090,7 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>127</v>
-      </c>
+      <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28929,9 +28127,7 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="n">
-        <v>127</v>
-      </c>
+      <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28968,9 +28164,7 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="n">
-        <v>127</v>
-      </c>
+      <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29007,9 +28201,7 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="n">
-        <v>127</v>
-      </c>
+      <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29046,9 +28238,7 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="n">
-        <v>127</v>
-      </c>
+      <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29085,9 +28275,7 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="n">
-        <v>127</v>
-      </c>
+      <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29124,9 +28312,7 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="n">
-        <v>127</v>
-      </c>
+      <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29163,9 +28349,7 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="n">
-        <v>127</v>
-      </c>
+      <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29202,9 +28386,7 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="n">
-        <v>127</v>
-      </c>
+      <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29241,9 +28423,7 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="n">
-        <v>127</v>
-      </c>
+      <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29280,9 +28460,7 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="n">
-        <v>127</v>
-      </c>
+      <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29319,9 +28497,7 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="n">
-        <v>127</v>
-      </c>
+      <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29358,9 +28534,7 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="n">
-        <v>127</v>
-      </c>
+      <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29397,9 +28571,7 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="n">
-        <v>127</v>
-      </c>
+      <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29436,9 +28608,7 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="n">
-        <v>127</v>
-      </c>
+      <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29475,9 +28645,7 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="n">
-        <v>127</v>
-      </c>
+      <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29514,9 +28682,7 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="n">
-        <v>127</v>
-      </c>
+      <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29553,9 +28719,7 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="n">
-        <v>127</v>
-      </c>
+      <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29592,9 +28756,7 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="n">
-        <v>127</v>
-      </c>
+      <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29631,9 +28793,7 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="n">
-        <v>127</v>
-      </c>
+      <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29670,9 +28830,7 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="n">
-        <v>127</v>
-      </c>
+      <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29709,9 +28867,7 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="n">
-        <v>127</v>
-      </c>
+      <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29748,9 +28904,7 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="n">
-        <v>127</v>
-      </c>
+      <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29787,9 +28941,7 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="n">
-        <v>127</v>
-      </c>
+      <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29826,9 +28978,7 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="n">
-        <v>127</v>
-      </c>
+      <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29865,9 +29015,7 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="n">
-        <v>127</v>
-      </c>
+      <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29904,9 +29052,7 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="n">
-        <v>127</v>
-      </c>
+      <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29943,9 +29089,7 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="n">
-        <v>127</v>
-      </c>
+      <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29982,9 +29126,7 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="n">
-        <v>127</v>
-      </c>
+      <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30021,9 +29163,7 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="n">
-        <v>127</v>
-      </c>
+      <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30060,9 +29200,7 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="n">
-        <v>127</v>
-      </c>
+      <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30099,9 +29237,7 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="n">
-        <v>127</v>
-      </c>
+      <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30138,9 +29274,7 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="n">
-        <v>127</v>
-      </c>
+      <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30177,9 +29311,7 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="n">
-        <v>127</v>
-      </c>
+      <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30216,9 +29348,7 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="n">
-        <v>127</v>
-      </c>
+      <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30255,9 +29385,7 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="n">
-        <v>127</v>
-      </c>
+      <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30294,9 +29422,7 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="n">
-        <v>127</v>
-      </c>
+      <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30333,9 +29459,7 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="n">
-        <v>127</v>
-      </c>
+      <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30369,23 +29493,19 @@
         <v>-1624050.031903328</v>
       </c>
       <c r="H824" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="n">
-        <v>127</v>
-      </c>
+      <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L824" t="n">
-        <v>1.15484251968504</v>
-      </c>
-      <c r="M824" t="n">
-        <v>1.16824644549763</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M824" t="inlineStr"/>
     </row>
     <row r="825">
       <c r="A825" s="1" t="n">
@@ -30414,7 +29534,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -30447,7 +29571,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -30480,7 +29608,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -30513,7 +29645,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -30546,7 +29682,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -30579,7 +29719,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -30612,7 +29756,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -30645,7 +29793,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -30678,7 +29830,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -30711,7 +29867,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -30744,7 +29904,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -30777,7 +29941,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -30810,7 +29978,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -30843,7 +30015,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -30876,7 +30052,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -30909,7 +30089,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -30942,7 +30126,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -30975,7 +30163,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -31008,7 +30200,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -31041,7 +30237,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -31074,7 +30274,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -31107,7 +30311,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -31140,7 +30348,11 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -31173,7 +30385,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -31206,7 +30422,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -31239,7 +30459,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -31272,7 +30496,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -31301,11 +30529,15 @@
         <v>-1534855.991198065</v>
       </c>
       <c r="H852" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -31334,11 +30566,15 @@
         <v>-1436603.078598065</v>
       </c>
       <c r="H853" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -31367,11 +30603,15 @@
         <v>-1436603.078598065</v>
       </c>
       <c r="H854" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -31400,11 +30640,15 @@
         <v>-1440527.520698065</v>
       </c>
       <c r="H855" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -31433,11 +30677,15 @@
         <v>-1424361.201598065</v>
       </c>
       <c r="H856" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -31466,11 +30714,15 @@
         <v>-1411210.846098065</v>
       </c>
       <c r="H857" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -31499,11 +30751,15 @@
         <v>-1411210.846098065</v>
       </c>
       <c r="H858" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -31536,7 +30792,11 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -31565,11 +30825,15 @@
         <v>-1411297.214398065</v>
       </c>
       <c r="H860" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -31598,11 +30862,15 @@
         <v>-1428549.972098065</v>
       </c>
       <c r="H861" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -31631,11 +30899,15 @@
         <v>-1336931.268198065</v>
       </c>
       <c r="H862" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -31668,7 +30940,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -31697,11 +30973,15 @@
         <v>-1299550.541892802</v>
       </c>
       <c r="H864" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -31730,11 +31010,15 @@
         <v>-1319365.384492802</v>
       </c>
       <c r="H865" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -31763,11 +31047,15 @@
         <v>-1329387.159092802</v>
       </c>
       <c r="H866" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -31800,7 +31088,11 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -31829,11 +31121,15 @@
         <v>-1398110.655892802</v>
       </c>
       <c r="H868" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -31862,11 +31158,15 @@
         <v>-1398110.655892802</v>
       </c>
       <c r="H869" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -31899,7 +31199,11 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -31932,7 +31236,11 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -31965,7 +31273,11 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -31998,7 +31310,11 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -32027,11 +31343,15 @@
         <v>-799992.9227928021</v>
       </c>
       <c r="H874" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -32064,7 +31384,11 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -32093,11 +31417,15 @@
         <v>-738114.0499928022</v>
       </c>
       <c r="H876" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -32130,7 +31458,11 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -32159,11 +31491,15 @@
         <v>-979122.566185197</v>
       </c>
       <c r="H878" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -32196,7 +31532,11 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -32229,7 +31569,11 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -32262,7 +31606,11 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -32295,7 +31643,11 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -32328,7 +31680,11 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -32361,7 +31717,11 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -32394,7 +31754,11 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -32427,7 +31791,11 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -32460,7 +31828,11 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -32493,7 +31865,11 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -32526,7 +31902,11 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -32559,7 +31939,11 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -32592,7 +31976,11 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -32625,7 +32013,11 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -32658,7 +32050,11 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -32691,7 +32087,11 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -32724,7 +32124,11 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -32753,11 +32157,15 @@
         <v>80631.00991480297</v>
       </c>
       <c r="H896" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -32786,11 +32194,15 @@
         <v>418129.753018923</v>
       </c>
       <c r="H897" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -32819,11 +32231,15 @@
         <v>173898.4525682598</v>
       </c>
       <c r="H898" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -32852,11 +32268,15 @@
         <v>37706.72371350494</v>
       </c>
       <c r="H899" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -32885,11 +32305,15 @@
         <v>9570.977413504937</v>
       </c>
       <c r="H900" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -32918,11 +32342,15 @@
         <v>24161.82851350494</v>
       </c>
       <c r="H901" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -32951,11 +32379,15 @@
         <v>-51919.13665985251</v>
       </c>
       <c r="H902" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -32984,14 +32416,16 @@
         <v>-60577.18371563814</v>
       </c>
       <c r="H903" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
-      <c r="L903" t="n">
-        <v>1</v>
-      </c>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L903" t="inlineStr"/>
       <c r="M903" t="inlineStr"/>
     </row>
     <row r="904">
@@ -33017,7 +32451,7 @@
         <v>-91680.07361563813</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -33050,7 +32484,7 @@
         <v>-12630.99571563813</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -33083,7 +32517,7 @@
         <v>-35194.28241563812</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -33116,7 +32550,7 @@
         <v>-58170.79131563813</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -33149,7 +32583,7 @@
         <v>-12174.33091563812</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -33182,7 +32616,7 @@
         <v>31848.37908436188</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -33215,7 +32649,7 @@
         <v>21580.32878436187</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -33248,7 +32682,7 @@
         <v>21580.32878436187</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -33281,7 +32715,7 @@
         <v>-82240.70411563813</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -33314,7 +32748,7 @@
         <v>-157267.3949156381</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -33347,7 +32781,7 @@
         <v>-206355.1380156381</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -33380,7 +32814,7 @@
         <v>-161540.1287156381</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -33413,7 +32847,7 @@
         <v>-221843.3840156381</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -33446,7 +32880,7 @@
         <v>-244766.4957156381</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -33479,7 +32913,7 @@
         <v>-191462.9602156381</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -33512,7 +32946,7 @@
         <v>-191462.9602156381</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -33545,7 +32979,7 @@
         <v>-246317.9509156381</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -33578,7 +33012,7 @@
         <v>-246317.9509156381</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -33611,7 +33045,7 @@
         <v>-175288.0825156381</v>
       </c>
       <c r="H922" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -33644,7 +33078,7 @@
         <v>-175288.0825156381</v>
       </c>
       <c r="H923" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -33677,7 +33111,7 @@
         <v>-175288.0825156381</v>
       </c>
       <c r="H924" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -33710,7 +33144,7 @@
         <v>-246782.8824156381</v>
       </c>
       <c r="H925" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -33743,7 +33177,7 @@
         <v>-216354.5980978973</v>
       </c>
       <c r="H926" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -33776,7 +33210,7 @@
         <v>-213303.2201978973</v>
       </c>
       <c r="H927" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -33809,7 +33243,7 @@
         <v>-218035.2717297888</v>
       </c>
       <c r="H928" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -33842,7 +33276,7 @@
         <v>29364.16673831956</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -33875,7 +33309,7 @@
         <v>1023583.730639794</v>
       </c>
       <c r="H930" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -33908,7 +33342,7 @@
         <v>932621.6194397944</v>
       </c>
       <c r="H931" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -33941,7 +33375,7 @@
         <v>939785.5154397944</v>
       </c>
       <c r="H932" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -33974,7 +33408,7 @@
         <v>940689.996727173</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -34007,7 +33441,7 @@
         <v>879989.9110520809</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -34040,7 +33474,7 @@
         <v>1012317.634652081</v>
       </c>
       <c r="H935" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -34073,7 +33507,7 @@
         <v>1010584.795352081</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -34106,7 +33540,7 @@
         <v>996042.280952081</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -34139,7 +33573,7 @@
         <v>996042.280952081</v>
       </c>
       <c r="H938" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -34172,7 +33606,7 @@
         <v>996352.280952081</v>
       </c>
       <c r="H939" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -34205,7 +33639,7 @@
         <v>1003413.542452081</v>
       </c>
       <c r="H940" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -34216,6 +33650,6 @@
       <c r="M940" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest WPX.xlsx
+++ b/BackTest/2020-01-19 BackTest WPX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3652,7 +3652,7 @@
         <v>-1451485.817415487</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-1451485.817415487</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-1439028.182746836</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-1443485.309678186</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-1449390.520878186</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-1434401.807909535</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-1424762.206909535</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-1413555.593309535</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-1413555.593309535</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-1413555.593309535</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -12199,17 +12199,11 @@
         <v>-2559989.892962538</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>129.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12246,7 +12240,7 @@
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L359" t="n">
@@ -13018,11 +13012,9 @@
         <v>-2502225.834390995</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>132.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
@@ -13057,11 +13049,9 @@
         <v>-2474920.334662847</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>132.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
@@ -13096,11 +13086,9 @@
         <v>-2419102.843890995</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
-      </c>
-      <c r="I381" t="n">
-        <v>135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
@@ -13135,11 +13123,9 @@
         <v>-2406144.678090995</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>136.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
@@ -14432,11 +14418,9 @@
         <v>-2485065.501293636</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>136.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
@@ -15211,9 +15195,11 @@
         <v>-2692347.798017571</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>133.1</v>
+      </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
@@ -15248,9 +15234,11 @@
         <v>-2675437.841717571</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>132.1</v>
+      </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
@@ -15285,9 +15273,11 @@
         <v>-2675437.841717571</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>133.1</v>
+      </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
@@ -15322,9 +15312,11 @@
         <v>-2675501.441017571</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>133.1</v>
+      </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
@@ -15359,9 +15351,11 @@
         <v>-2672347.948417571</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>133</v>
+      </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
@@ -15396,9 +15390,11 @@
         <v>-2672347.948417571</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>133.1</v>
+      </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
@@ -15433,9 +15429,11 @@
         <v>-2639477.603117571</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>133.1</v>
+      </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
@@ -15470,9 +15468,11 @@
         <v>-2639492.603117571</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>134.9</v>
+      </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
@@ -15507,9 +15507,11 @@
         <v>-2639492.603117571</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>134</v>
+      </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
@@ -15544,9 +15546,11 @@
         <v>-2637046.571117571</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>134</v>
+      </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
@@ -15581,9 +15585,11 @@
         <v>-2637046.571117571</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>136.2</v>
+      </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
@@ -15618,9 +15624,11 @@
         <v>-2637046.571117571</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>136.2</v>
+      </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
@@ -15655,9 +15663,11 @@
         <v>-2638508.187517571</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>136.2</v>
+      </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
@@ -15692,9 +15702,11 @@
         <v>-2627173.027217571</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>134.1</v>
+      </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
@@ -15729,9 +15741,11 @@
         <v>-2632515.434117571</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>135.9</v>
+      </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
@@ -16691,18 +16705,16 @@
         <v>-1638732.492864258</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L478" t="n">
-        <v>1</v>
-      </c>
+      <c r="L478" t="inlineStr"/>
       <c r="M478" t="inlineStr"/>
     </row>
     <row r="479">
@@ -16728,15 +16740,11 @@
         <v>-1762957.871464258</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16765,15 +16773,11 @@
         <v>-1762957.871464258</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16802,15 +16806,11 @@
         <v>-1783518.943364258</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16839,15 +16839,11 @@
         <v>-1837788.487764258</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16876,15 +16872,11 @@
         <v>-1828418.262664258</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16913,15 +16905,11 @@
         <v>-1829512.824764258</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16950,15 +16938,11 @@
         <v>-1829192.185664258</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16987,15 +16971,11 @@
         <v>-1838584.099864258</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17024,15 +17004,11 @@
         <v>-1837011.995864258</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17061,15 +17037,11 @@
         <v>-1824372.372664258</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17098,15 +17070,11 @@
         <v>-1827747.372664258</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17135,15 +17103,11 @@
         <v>-1827747.372664258</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17172,15 +17136,11 @@
         <v>-1827747.372664258</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17209,15 +17169,11 @@
         <v>-1827747.372664258</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17246,15 +17202,11 @@
         <v>-1827747.372664258</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17283,15 +17235,11 @@
         <v>-1830742.065164258</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17320,15 +17268,11 @@
         <v>-1829656.279364258</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17357,15 +17301,11 @@
         <v>-1815743.633996266</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17394,15 +17334,11 @@
         <v>-1817603.518896266</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17431,15 +17367,11 @@
         <v>-1819091.623296266</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17468,15 +17400,11 @@
         <v>-1838415.284738221</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17505,15 +17433,11 @@
         <v>-1838409.703538221</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17542,15 +17466,11 @@
         <v>-1848473.204638221</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17579,15 +17499,11 @@
         <v>-1812023.994770654</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17616,15 +17532,11 @@
         <v>-1812023.994770654</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17653,15 +17565,11 @@
         <v>-1816494.768670653</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17694,11 +17602,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17731,11 +17635,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17768,11 +17668,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17805,11 +17701,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17842,11 +17734,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17879,11 +17767,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17916,11 +17800,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17953,11 +17833,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17990,11 +17866,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18027,11 +17899,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18064,11 +17932,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18101,11 +17965,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18138,11 +17998,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18175,11 +18031,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18212,11 +18064,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18249,11 +18097,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18286,11 +18130,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18323,11 +18163,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18360,11 +18196,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18397,11 +18229,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18434,11 +18262,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18471,11 +18295,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18508,11 +18328,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18545,11 +18361,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18582,11 +18394,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18619,11 +18427,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18656,11 +18460,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18693,11 +18493,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18730,11 +18526,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18767,11 +18559,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18804,11 +18592,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18841,11 +18625,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18878,11 +18658,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18915,11 +18691,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18952,11 +18724,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18989,11 +18757,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19026,11 +18790,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19063,11 +18823,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19100,11 +18856,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19137,11 +18889,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19174,11 +18922,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19211,11 +18955,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19248,11 +18988,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19285,11 +19021,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19322,11 +19054,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19359,11 +19087,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19396,11 +19120,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19433,11 +19153,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19470,11 +19186,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19507,11 +19219,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19544,11 +19252,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19581,11 +19285,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19618,11 +19318,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19655,11 +19351,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19692,11 +19384,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19729,11 +19417,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19766,11 +19450,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19803,11 +19483,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19840,11 +19516,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19877,11 +19549,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19914,11 +19582,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19951,11 +19615,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19988,11 +19648,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20025,11 +19681,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20062,11 +19714,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20099,11 +19747,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20136,11 +19780,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20173,11 +19813,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20210,11 +19846,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20247,11 +19879,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20284,11 +19912,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20321,11 +19945,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20358,11 +19978,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20395,11 +20011,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20432,11 +20044,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20469,11 +20077,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20506,11 +20110,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20543,11 +20143,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20580,11 +20176,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20617,11 +20209,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20654,11 +20242,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20691,11 +20275,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20728,11 +20308,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20765,11 +20341,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20802,11 +20374,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20839,11 +20407,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20876,11 +20440,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20913,11 +20473,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20950,11 +20506,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20987,11 +20539,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21024,11 +20572,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21061,11 +20605,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21098,11 +20638,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21135,11 +20671,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21172,11 +20704,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21209,11 +20737,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21246,11 +20770,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21283,11 +20803,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21320,11 +20836,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21357,11 +20869,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21394,11 +20902,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21431,11 +20935,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21468,11 +20968,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21505,11 +21001,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21542,11 +21034,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21579,11 +21067,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21616,11 +21100,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21653,11 +21133,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21690,11 +21166,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21727,11 +21199,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21764,11 +21232,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21801,11 +21265,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21838,11 +21298,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21875,11 +21331,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21912,11 +21364,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21949,11 +21397,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21986,11 +21430,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22023,11 +21463,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22060,11 +21496,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22097,11 +21529,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22134,11 +21562,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22171,11 +21595,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22208,11 +21628,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22245,11 +21661,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22282,11 +21694,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22319,11 +21727,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22356,11 +21760,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22393,11 +21793,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22430,11 +21826,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22467,11 +21859,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22504,11 +21892,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22541,11 +21925,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22578,11 +21958,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22615,11 +21991,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22652,11 +22024,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22689,11 +22057,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22726,11 +22090,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22763,11 +22123,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22800,11 +22156,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22837,11 +22189,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22874,11 +22222,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22911,11 +22255,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22948,11 +22288,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22985,11 +22321,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23022,11 +22354,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23059,11 +22387,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23096,11 +22420,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23133,11 +22453,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23170,11 +22486,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23207,11 +22519,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23244,11 +22552,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23281,11 +22585,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23318,11 +22618,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23355,11 +22651,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23392,11 +22684,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23429,11 +22717,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23466,11 +22750,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23503,11 +22783,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23540,11 +22816,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23577,11 +22849,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23614,11 +22882,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23651,11 +22915,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23688,11 +22948,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23725,11 +22981,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23762,11 +23014,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23799,11 +23047,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23836,11 +23080,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23873,11 +23113,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23910,11 +23146,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23947,11 +23179,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23984,11 +23212,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24021,11 +23245,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24058,11 +23278,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24095,11 +23311,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24132,11 +23344,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24169,11 +23377,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24206,11 +23410,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24243,11 +23443,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24280,11 +23476,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24317,11 +23509,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24354,11 +23542,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24391,11 +23575,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24428,11 +23608,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24465,11 +23641,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24502,11 +23674,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24539,11 +23707,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24576,11 +23740,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24613,11 +23773,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24650,11 +23806,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24687,11 +23839,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24724,11 +23872,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24761,11 +23905,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24798,11 +23938,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24835,11 +23971,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24872,11 +24004,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24909,11 +24037,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24946,11 +24070,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24983,11 +24103,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -25020,11 +24136,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -25057,11 +24169,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -25094,11 +24202,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -25131,11 +24235,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -25168,11 +24268,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -25205,11 +24301,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -25242,11 +24334,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -25279,11 +24367,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -25316,11 +24400,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25353,11 +24433,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25390,11 +24466,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25427,11 +24499,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25464,11 +24532,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25501,11 +24565,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25538,11 +24598,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25575,11 +24631,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25612,11 +24664,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25649,11 +24697,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25686,11 +24730,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25723,11 +24763,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25760,11 +24796,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25797,11 +24829,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25834,11 +24862,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25871,11 +24895,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25908,11 +24928,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25945,11 +24961,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25982,11 +24994,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -26019,11 +25027,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -26056,11 +25060,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -26093,11 +25093,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -26130,11 +25126,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -26167,11 +25159,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -26204,11 +25192,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -26241,11 +25225,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -26278,11 +25258,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -26315,11 +25291,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -26352,11 +25324,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -26389,11 +25357,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -26426,11 +25390,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -26463,11 +25423,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -26500,11 +25456,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -26537,11 +25489,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -26574,11 +25522,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -26611,11 +25555,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26648,11 +25588,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26685,11 +25621,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26722,11 +25654,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26759,11 +25687,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26796,11 +25720,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26833,11 +25753,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26870,11 +25786,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26907,11 +25819,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26940,15 +25848,11 @@
         <v>-1655362.044216945</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26977,15 +25881,11 @@
         <v>-1607480.015116945</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -27014,15 +25914,11 @@
         <v>-1609347.790116945</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -27055,11 +25951,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -27092,11 +25984,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -27125,15 +26013,11 @@
         <v>-1545719.735116945</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -27166,11 +26050,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -27203,11 +26083,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -27240,11 +26116,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -27277,11 +26149,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -27314,11 +26182,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -27351,11 +26215,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -27388,11 +26248,7 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -27425,11 +26281,7 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -27462,11 +26314,7 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -27499,11 +26347,7 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -27536,11 +26380,7 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -27573,11 +26413,7 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -27610,11 +26446,7 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -27647,11 +26479,7 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -27684,11 +26512,7 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -27721,11 +26545,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -27758,11 +26578,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -27795,11 +26611,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -27832,11 +26644,7 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -27869,11 +26677,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -27906,11 +26710,7 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -27943,11 +26743,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -27980,11 +26776,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -28017,11 +26809,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -28054,11 +26842,7 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -28091,11 +26875,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -28128,11 +26908,7 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -28165,11 +26941,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -28202,11 +26974,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -28239,11 +27007,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -28276,11 +27040,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -28313,11 +27073,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -28350,11 +27106,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -28387,11 +27139,7 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -28424,11 +27172,7 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -28461,11 +27205,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -28498,11 +27238,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -28535,11 +27271,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -28572,11 +27304,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -28609,11 +27337,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -28646,11 +27370,7 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -28683,11 +27403,7 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -28720,11 +27436,7 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -28757,11 +27469,7 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -28794,11 +27502,7 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K805" t="inlineStr"/>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -28831,11 +27535,7 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -28868,11 +27568,7 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K807" t="inlineStr"/>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -28905,11 +27601,7 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K808" t="inlineStr"/>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -28942,11 +27634,7 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K809" t="inlineStr"/>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -28979,11 +27667,7 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K810" t="inlineStr"/>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -29016,11 +27700,7 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K811" t="inlineStr"/>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -29053,11 +27733,7 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -29090,11 +27766,7 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K813" t="inlineStr"/>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -29127,11 +27799,7 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K814" t="inlineStr"/>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -29164,11 +27832,7 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -29201,11 +27865,7 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -29238,11 +27898,7 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -29275,11 +27931,7 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -29312,11 +27964,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -29349,11 +27997,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -29386,11 +28030,7 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -29423,11 +28063,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -29460,11 +28096,7 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -29497,11 +28129,7 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -29534,11 +28162,7 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -29571,11 +28195,7 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -29608,11 +28228,7 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -29645,11 +28261,7 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -29682,11 +28294,7 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -29719,11 +28327,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -29756,11 +28360,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -29793,11 +28393,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -29830,11 +28426,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -29867,11 +28459,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -29904,11 +28492,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -29941,11 +28525,7 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -29978,11 +28558,7 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -30015,11 +28591,7 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -30052,11 +28624,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -30089,11 +28657,7 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -30126,11 +28690,7 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -30163,11 +28723,7 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -30200,11 +28756,7 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -30237,11 +28789,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -30274,11 +28822,7 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -30311,11 +28855,7 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -30348,11 +28888,7 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -30385,11 +28921,7 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -30422,11 +28954,7 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -30459,11 +28987,7 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -30496,11 +29020,7 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -30529,15 +29049,11 @@
         <v>-1534855.991198065</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -30566,15 +29082,11 @@
         <v>-1436603.078598065</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -30603,15 +29115,11 @@
         <v>-1436603.078598065</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -30640,15 +29148,11 @@
         <v>-1440527.520698065</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -30677,15 +29181,11 @@
         <v>-1424361.201598065</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -30714,15 +29214,11 @@
         <v>-1411210.846098065</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -30751,15 +29247,11 @@
         <v>-1411210.846098065</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -30788,15 +29280,11 @@
         <v>-1398797.214398065</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -30825,15 +29313,11 @@
         <v>-1411297.214398065</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -30862,15 +29346,11 @@
         <v>-1428549.972098065</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -30899,15 +29379,11 @@
         <v>-1336931.268198065</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -30936,15 +29412,11 @@
         <v>-1299550.541892802</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -30973,15 +29445,11 @@
         <v>-1299550.541892802</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -31010,15 +29478,11 @@
         <v>-1319365.384492802</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -31047,15 +29511,11 @@
         <v>-1329387.159092802</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K866" t="inlineStr"/>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -31088,11 +29548,7 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -31125,11 +29581,7 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -31162,11 +29614,7 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -31199,11 +29647,7 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K870" t="inlineStr"/>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -31236,11 +29680,7 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K871" t="inlineStr"/>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -31269,15 +29709,11 @@
         <v>-1011718.502092802</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K872" t="inlineStr"/>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -31306,15 +29742,11 @@
         <v>-1037799.041292802</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K873" t="inlineStr"/>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -31343,15 +29775,11 @@
         <v>-799992.9227928021</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K874" t="inlineStr"/>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -31380,15 +29808,11 @@
         <v>-747428.8222928022</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K875" t="inlineStr"/>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -31417,15 +29841,11 @@
         <v>-738114.0499928022</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K876" t="inlineStr"/>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -31454,15 +29874,11 @@
         <v>-982234.0322851969</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K877" t="inlineStr"/>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -31491,15 +29907,11 @@
         <v>-979122.566185197</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K878" t="inlineStr"/>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -31528,15 +29940,11 @@
         <v>-949051.963085197</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K879" t="inlineStr"/>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -31565,15 +29973,11 @@
         <v>-953473.469485197</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K880" t="inlineStr"/>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -31602,15 +30006,11 @@
         <v>-963139.772085197</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K881" t="inlineStr"/>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -31639,15 +30039,11 @@
         <v>-968158.379085197</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K882" t="inlineStr"/>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -31676,15 +30072,11 @@
         <v>-968158.379085197</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K883" t="inlineStr"/>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -31713,15 +30105,11 @@
         <v>-968158.379085197</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K884" t="inlineStr"/>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -31750,15 +30138,11 @@
         <v>-968158.379085197</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K885" t="inlineStr"/>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -31787,15 +30171,11 @@
         <v>-702330.6522851971</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K886" t="inlineStr"/>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -31824,15 +30204,11 @@
         <v>-542624.7632851971</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K887" t="inlineStr"/>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -31861,15 +30237,11 @@
         <v>-542624.7632851971</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K888" t="inlineStr"/>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -31898,15 +30270,11 @@
         <v>-542624.7632851971</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K889" t="inlineStr"/>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -31935,15 +30303,11 @@
         <v>-473602.8094357374</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K890" t="inlineStr"/>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -31972,15 +30336,11 @@
         <v>-441921.8720851971</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K891" t="inlineStr"/>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -32009,15 +30369,11 @@
         <v>-396746.685185197</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K892" t="inlineStr"/>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -32046,15 +30402,11 @@
         <v>-342132.242685197</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K893" t="inlineStr"/>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -32083,15 +30435,11 @@
         <v>-167477.178985197</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K894" t="inlineStr"/>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -32120,15 +30468,11 @@
         <v>-44531.79644659093</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K895" t="inlineStr"/>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -32161,11 +30505,7 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K896" t="inlineStr"/>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -32198,11 +30538,7 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K897" t="inlineStr"/>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -32235,11 +30571,7 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K898" t="inlineStr"/>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -32272,11 +30604,7 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K899" t="inlineStr"/>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -32309,11 +30637,7 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K900" t="inlineStr"/>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -32346,11 +30670,7 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K901" t="inlineStr"/>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -32383,11 +30703,7 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K902" t="inlineStr"/>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -32416,16 +30732,14 @@
         <v>-60577.18371563814</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L903" t="inlineStr"/>
+      <c r="K903" t="inlineStr"/>
+      <c r="L903" t="n">
+        <v>1</v>
+      </c>
       <c r="M903" t="inlineStr"/>
     </row>
     <row r="904">
@@ -32451,7 +30765,7 @@
         <v>-91680.07361563813</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -32484,7 +30798,7 @@
         <v>-12630.99571563813</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -32517,7 +30831,7 @@
         <v>-35194.28241563812</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -32550,7 +30864,7 @@
         <v>-58170.79131563813</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -32583,7 +30897,7 @@
         <v>-12174.33091563812</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -32616,7 +30930,7 @@
         <v>31848.37908436188</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -32649,7 +30963,7 @@
         <v>21580.32878436187</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -32682,7 +30996,7 @@
         <v>21580.32878436187</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -32715,7 +31029,7 @@
         <v>-82240.70411563813</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -32748,7 +31062,7 @@
         <v>-157267.3949156381</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -32781,7 +31095,7 @@
         <v>-206355.1380156381</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -32814,7 +31128,7 @@
         <v>-161540.1287156381</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -32847,7 +31161,7 @@
         <v>-221843.3840156381</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -32880,7 +31194,7 @@
         <v>-244766.4957156381</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -32913,7 +31227,7 @@
         <v>-191462.9602156381</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -33177,7 +31491,7 @@
         <v>-216354.5980978973</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -33210,7 +31524,7 @@
         <v>-213303.2201978973</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -33243,7 +31557,7 @@
         <v>-218035.2717297888</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -33276,7 +31590,7 @@
         <v>29364.16673831956</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -33309,7 +31623,7 @@
         <v>1023583.730639794</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -33342,7 +31656,7 @@
         <v>932621.6194397944</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -33375,7 +31689,7 @@
         <v>939785.5154397944</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -33408,7 +31722,7 @@
         <v>940689.996727173</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -33441,7 +31755,7 @@
         <v>879989.9110520809</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -33474,7 +31788,7 @@
         <v>1012317.634652081</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -33507,7 +31821,7 @@
         <v>1010584.795352081</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -33540,7 +31854,7 @@
         <v>996042.280952081</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -33573,7 +31887,7 @@
         <v>996042.280952081</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -33606,7 +31920,7 @@
         <v>996352.280952081</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -33639,7 +31953,7 @@
         <v>1003413.542452081</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -33650,6 +31964,6 @@
       <c r="M940" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest WPX.xlsx
+++ b/BackTest/2020-01-19 BackTest WPX.xlsx
@@ -3652,7 +3652,7 @@
         <v>-1451485.817415487</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-1451485.817415487</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-1439028.182746836</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-1443485.309678186</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-1449390.520878186</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-1434401.807909535</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-1424762.206909535</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-1413555.593309535</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-1413555.593309535</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-1413555.593309535</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -12232,17 +12232,11 @@
         <v>-2590719.946962538</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>128.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12271,17 +12265,11 @@
         <v>-2639447.287162538</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>128.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12310,17 +12298,11 @@
         <v>-2654925.191262538</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12349,17 +12331,11 @@
         <v>-2662035.916122664</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>127.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12396,7 +12372,7 @@
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L363" t="n">
@@ -13012,9 +12988,11 @@
         <v>-2502225.834390995</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>132.7</v>
+      </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
@@ -13049,9 +13027,11 @@
         <v>-2474920.334662847</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>132.7</v>
+      </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
@@ -13086,9 +13066,11 @@
         <v>-2419102.843890995</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>135</v>
+      </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
@@ -15195,11 +15177,9 @@
         <v>-2692347.798017571</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>133.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
@@ -15234,11 +15214,9 @@
         <v>-2675437.841717571</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>132.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
@@ -15273,11 +15251,9 @@
         <v>-2675437.841717571</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>133.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
@@ -15312,11 +15288,9 @@
         <v>-2675501.441017571</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>133.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
@@ -15351,11 +15325,9 @@
         <v>-2672347.948417571</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
@@ -15390,11 +15362,9 @@
         <v>-2672347.948417571</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>133.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
@@ -15429,11 +15399,9 @@
         <v>-2639477.603117571</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
-      </c>
-      <c r="I444" t="n">
-        <v>133.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
@@ -15468,11 +15436,9 @@
         <v>-2639492.603117571</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
-      </c>
-      <c r="I445" t="n">
-        <v>134.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
@@ -15507,11 +15473,9 @@
         <v>-2639492.603117571</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
-      </c>
-      <c r="I446" t="n">
-        <v>134</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
@@ -15546,11 +15510,9 @@
         <v>-2637046.571117571</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
-      </c>
-      <c r="I447" t="n">
-        <v>134</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
@@ -15585,11 +15547,9 @@
         <v>-2637046.571117571</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
-      </c>
-      <c r="I448" t="n">
-        <v>136.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
@@ -15624,11 +15584,9 @@
         <v>-2637046.571117571</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
-      </c>
-      <c r="I449" t="n">
-        <v>136.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
@@ -15663,11 +15621,9 @@
         <v>-2638508.187517571</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" t="n">
-        <v>136.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
@@ -15702,11 +15658,9 @@
         <v>-2627173.027217571</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
-      </c>
-      <c r="I451" t="n">
-        <v>134.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
@@ -15741,11 +15695,9 @@
         <v>-2632515.434117571</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
-      </c>
-      <c r="I452" t="n">
-        <v>135.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
@@ -16705,16 +16657,18 @@
         <v>-1638732.492864258</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L478" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L478" t="n">
+        <v>1</v>
+      </c>
       <c r="M478" t="inlineStr"/>
     </row>
     <row r="479">
@@ -16740,11 +16694,15 @@
         <v>-1762957.871464258</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16773,11 +16731,15 @@
         <v>-1762957.871464258</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16806,11 +16768,15 @@
         <v>-1783518.943364258</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16839,11 +16805,15 @@
         <v>-1837788.487764258</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16872,11 +16842,15 @@
         <v>-1828418.262664258</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16905,11 +16879,15 @@
         <v>-1829512.824764258</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16938,11 +16916,15 @@
         <v>-1829192.185664258</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16971,11 +16953,15 @@
         <v>-1838584.099864258</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17004,11 +16990,15 @@
         <v>-1837011.995864258</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17037,11 +17027,15 @@
         <v>-1824372.372664258</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17070,11 +17064,15 @@
         <v>-1827747.372664258</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17103,11 +17101,15 @@
         <v>-1827747.372664258</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17136,11 +17138,15 @@
         <v>-1827747.372664258</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17169,11 +17175,15 @@
         <v>-1827747.372664258</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17202,11 +17212,15 @@
         <v>-1827747.372664258</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17235,11 +17249,15 @@
         <v>-1830742.065164258</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17268,11 +17286,15 @@
         <v>-1829656.279364258</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17301,11 +17323,15 @@
         <v>-1815743.633996266</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17334,11 +17360,15 @@
         <v>-1817603.518896266</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17367,11 +17397,15 @@
         <v>-1819091.623296266</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17400,11 +17434,15 @@
         <v>-1838415.284738221</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17433,11 +17471,15 @@
         <v>-1838409.703538221</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17466,11 +17508,15 @@
         <v>-1848473.204638221</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17499,11 +17545,15 @@
         <v>-1812023.994770654</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17532,11 +17582,15 @@
         <v>-1812023.994770654</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17565,11 +17619,15 @@
         <v>-1816494.768670653</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17602,7 +17660,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17635,7 +17697,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17668,7 +17734,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17701,7 +17771,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17734,7 +17808,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17767,7 +17845,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17800,7 +17882,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17833,7 +17919,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17866,7 +17956,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17899,7 +17993,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17932,7 +18030,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17965,7 +18067,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17998,7 +18104,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18031,7 +18141,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18064,7 +18178,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18097,7 +18215,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18130,7 +18252,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18163,7 +18289,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18196,7 +18326,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18229,7 +18363,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18262,7 +18400,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18295,7 +18437,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18328,7 +18474,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18361,7 +18511,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18394,7 +18548,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18427,7 +18585,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18460,7 +18622,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18493,7 +18659,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18526,7 +18696,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18559,7 +18733,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18592,7 +18770,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18625,7 +18807,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18658,7 +18844,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18691,7 +18881,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18724,7 +18918,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18757,7 +18955,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18790,7 +18992,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18823,7 +19029,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18856,7 +19066,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18889,7 +19103,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18922,7 +19140,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18955,7 +19177,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18988,7 +19214,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19021,7 +19251,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19054,7 +19288,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19087,7 +19325,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19120,7 +19362,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19153,7 +19399,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19186,7 +19436,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19219,7 +19473,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19252,7 +19510,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19285,7 +19547,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19318,7 +19584,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19351,7 +19621,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19384,7 +19658,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19417,7 +19695,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19450,7 +19732,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19483,7 +19769,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19516,7 +19806,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19549,7 +19843,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19582,7 +19880,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19615,7 +19917,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19648,7 +19954,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19681,7 +19991,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19714,7 +20028,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19747,7 +20065,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19780,7 +20102,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19813,7 +20139,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19846,7 +20176,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19879,7 +20213,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19912,7 +20250,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19945,7 +20287,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19978,7 +20324,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20011,7 +20361,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20044,7 +20398,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20077,7 +20435,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20110,7 +20472,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20143,7 +20509,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20176,7 +20546,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20209,7 +20583,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20242,7 +20620,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20275,7 +20657,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20308,7 +20694,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20341,7 +20731,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20374,7 +20768,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20407,7 +20805,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20440,7 +20842,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20473,7 +20879,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20506,7 +20916,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20539,7 +20953,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20572,7 +20990,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20605,7 +21027,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20638,7 +21064,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20671,7 +21101,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20704,7 +21138,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20737,7 +21175,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20770,7 +21212,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20803,7 +21249,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20836,7 +21286,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20869,7 +21323,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20902,7 +21360,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20935,7 +21397,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20968,7 +21434,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21001,7 +21471,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21034,7 +21508,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21067,7 +21545,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21100,7 +21582,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21133,7 +21619,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21166,7 +21656,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21199,7 +21693,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21232,7 +21730,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21265,7 +21767,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21298,7 +21804,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21331,7 +21841,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21364,7 +21878,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21397,7 +21915,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21430,7 +21952,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21463,7 +21989,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21496,7 +22026,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21529,7 +22063,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21562,7 +22100,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21595,7 +22137,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21628,7 +22174,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21661,7 +22211,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21694,7 +22248,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21727,7 +22285,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21760,7 +22322,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21793,7 +22359,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21826,7 +22396,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21859,7 +22433,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21892,7 +22470,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21925,7 +22507,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21958,7 +22544,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21991,7 +22581,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22024,7 +22618,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22057,7 +22655,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22090,7 +22692,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22123,7 +22729,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22156,7 +22766,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22189,7 +22803,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22222,7 +22840,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22255,7 +22877,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22288,7 +22914,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22321,7 +22951,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22354,7 +22988,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22387,7 +23025,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22420,7 +23062,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22453,7 +23099,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22486,7 +23136,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22519,7 +23173,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22552,7 +23210,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22585,7 +23247,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22618,7 +23284,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22651,7 +23321,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22684,7 +23358,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22717,7 +23395,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22750,7 +23432,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22783,7 +23469,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22816,7 +23506,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22849,7 +23543,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22882,7 +23580,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22915,7 +23617,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22948,7 +23654,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22981,7 +23691,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23014,7 +23728,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23047,7 +23765,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23080,7 +23802,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23113,7 +23839,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23146,7 +23876,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23179,7 +23913,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23212,7 +23950,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23245,7 +23987,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23278,7 +24024,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23311,7 +24061,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23344,7 +24098,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23377,7 +24135,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23410,7 +24172,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23443,7 +24209,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23476,7 +24246,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23509,7 +24283,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23542,7 +24320,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23575,7 +24357,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23608,7 +24394,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23641,7 +24431,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23674,7 +24468,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23707,7 +24505,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23740,7 +24542,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23773,7 +24579,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23806,7 +24616,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23839,7 +24653,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23872,7 +24690,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23905,7 +24727,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23938,7 +24764,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23971,7 +24801,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24004,7 +24838,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24037,7 +24875,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24070,7 +24912,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24103,7 +24949,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24136,7 +24986,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24169,7 +25023,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24202,7 +25060,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24235,7 +25097,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24268,7 +25134,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24301,7 +25171,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24334,7 +25208,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24367,7 +25245,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24400,7 +25282,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24433,7 +25319,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24466,7 +25356,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24499,7 +25393,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24532,7 +25430,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24565,7 +25467,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24598,7 +25504,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24631,7 +25541,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24664,7 +25578,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24697,7 +25615,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24730,7 +25652,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24763,7 +25689,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24796,7 +25726,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24829,7 +25763,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24862,7 +25800,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24895,7 +25837,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24928,7 +25874,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24961,7 +25911,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24994,7 +25948,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25027,7 +25985,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25060,7 +26022,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25093,7 +26059,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25126,7 +26096,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25159,7 +26133,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25192,7 +26170,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25225,7 +26207,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25258,7 +26244,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25291,7 +26281,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25324,7 +26318,11 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25357,7 +26355,11 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25390,7 +26392,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25423,7 +26429,11 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25456,7 +26466,11 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25489,7 +26503,11 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25522,7 +26540,11 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25555,7 +26577,11 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25588,7 +26614,11 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25621,7 +26651,11 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25654,7 +26688,11 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25687,7 +26725,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25720,7 +26762,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25753,7 +26799,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25786,7 +26836,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25819,7 +26873,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25848,11 +26906,15 @@
         <v>-1655362.044216945</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25881,11 +26943,15 @@
         <v>-1607480.015116945</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25914,11 +26980,15 @@
         <v>-1609347.790116945</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25951,7 +27021,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25984,7 +27058,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26013,11 +27091,15 @@
         <v>-1545719.735116945</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26050,7 +27132,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26083,7 +27169,11 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26116,7 +27206,11 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26149,7 +27243,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26182,7 +27280,11 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26215,7 +27317,11 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26248,7 +27354,11 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26281,7 +27391,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26314,7 +27428,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26347,7 +27465,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26380,7 +27502,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26413,7 +27539,11 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26446,7 +27576,11 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26479,7 +27613,11 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26512,7 +27650,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26545,7 +27687,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26578,7 +27724,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26611,7 +27761,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26644,7 +27798,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26677,7 +27835,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26710,7 +27872,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26743,7 +27909,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26776,7 +27946,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26809,7 +27983,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26842,7 +28020,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26875,7 +28057,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26908,7 +28094,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26941,7 +28131,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26974,7 +28168,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -27007,7 +28205,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -27040,7 +28242,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -27073,7 +28279,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -27106,7 +28316,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -27139,7 +28353,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -27172,7 +28390,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -27205,7 +28427,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27238,7 +28464,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27271,7 +28501,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27304,7 +28538,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27337,7 +28575,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27370,7 +28612,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27403,7 +28649,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27436,7 +28686,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27469,7 +28723,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27502,7 +28760,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27535,7 +28797,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27568,7 +28834,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27601,7 +28871,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27634,7 +28908,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27667,7 +28945,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27700,7 +28982,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27733,7 +29019,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27766,7 +29056,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27799,7 +29093,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27832,7 +29130,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27865,7 +29167,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27898,7 +29204,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27931,7 +29241,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27964,7 +29278,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27997,7 +29315,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -28030,7 +29352,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -28063,7 +29389,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -28096,7 +29426,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -28129,7 +29463,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -28162,7 +29500,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -28195,7 +29537,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -28228,7 +29574,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -28261,7 +29611,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -28294,7 +29648,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -28327,7 +29685,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -28360,7 +29722,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -28393,7 +29759,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -28426,7 +29796,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -28459,7 +29833,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28492,7 +29870,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28525,7 +29907,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28558,7 +29944,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28591,7 +29981,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28624,7 +30018,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28657,7 +30055,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28690,7 +30092,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28723,7 +30129,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28756,7 +30166,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28789,7 +30203,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28822,7 +30240,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28855,7 +30277,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28888,7 +30314,11 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28921,7 +30351,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28954,7 +30388,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28987,7 +30425,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -29020,7 +30462,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -29049,11 +30495,15 @@
         <v>-1534855.991198065</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -29082,11 +30532,15 @@
         <v>-1436603.078598065</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -29115,11 +30569,15 @@
         <v>-1436603.078598065</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -29148,11 +30606,15 @@
         <v>-1440527.520698065</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -29181,11 +30643,15 @@
         <v>-1424361.201598065</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -29214,11 +30680,15 @@
         <v>-1411210.846098065</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -29247,11 +30717,15 @@
         <v>-1411210.846098065</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -29280,11 +30754,15 @@
         <v>-1398797.214398065</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -29313,11 +30791,15 @@
         <v>-1411297.214398065</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -29346,11 +30828,15 @@
         <v>-1428549.972098065</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -29379,11 +30865,15 @@
         <v>-1336931.268198065</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -29412,11 +30902,15 @@
         <v>-1299550.541892802</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -29445,11 +30939,15 @@
         <v>-1299550.541892802</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -29478,11 +30976,15 @@
         <v>-1319365.384492802</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -29511,11 +31013,15 @@
         <v>-1329387.159092802</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29548,7 +31054,11 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29581,7 +31091,11 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29614,7 +31128,11 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29647,7 +31165,11 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29680,7 +31202,11 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29709,11 +31235,15 @@
         <v>-1011718.502092802</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29742,11 +31272,15 @@
         <v>-1037799.041292802</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29775,11 +31309,15 @@
         <v>-799992.9227928021</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29808,11 +31346,15 @@
         <v>-747428.8222928022</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29841,11 +31383,15 @@
         <v>-738114.0499928022</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29874,11 +31420,15 @@
         <v>-982234.0322851969</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29907,11 +31457,15 @@
         <v>-979122.566185197</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29940,11 +31494,15 @@
         <v>-949051.963085197</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29973,11 +31531,15 @@
         <v>-953473.469485197</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -30006,11 +31568,15 @@
         <v>-963139.772085197</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -30039,11 +31605,15 @@
         <v>-968158.379085197</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -30072,11 +31642,15 @@
         <v>-968158.379085197</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -30105,11 +31679,15 @@
         <v>-968158.379085197</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -30138,11 +31716,15 @@
         <v>-968158.379085197</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -30171,11 +31753,15 @@
         <v>-702330.6522851971</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -30204,11 +31790,15 @@
         <v>-542624.7632851971</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -30237,11 +31827,15 @@
         <v>-542624.7632851971</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -30270,11 +31864,15 @@
         <v>-542624.7632851971</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30303,11 +31901,15 @@
         <v>-473602.8094357374</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -30336,11 +31938,15 @@
         <v>-441921.8720851971</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -30369,11 +31975,15 @@
         <v>-396746.685185197</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -30402,11 +32012,15 @@
         <v>-342132.242685197</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -30435,11 +32049,15 @@
         <v>-167477.178985197</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -30468,11 +32086,15 @@
         <v>-44531.79644659093</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -30505,7 +32127,11 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30538,7 +32164,11 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30567,14 +32197,16 @@
         <v>173898.4525682598</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
-      <c r="L898" t="n">
-        <v>1</v>
-      </c>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L898" t="inlineStr"/>
       <c r="M898" t="inlineStr"/>
     </row>
     <row r="899">
@@ -30600,7 +32232,7 @@
         <v>37706.72371350494</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -30633,7 +32265,7 @@
         <v>9570.977413504937</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -30666,7 +32298,7 @@
         <v>24161.82851350494</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -30699,7 +32331,7 @@
         <v>-51919.13665985251</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -30732,7 +32364,7 @@
         <v>-60577.18371563814</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -30831,7 +32463,7 @@
         <v>-35194.28241563812</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -30864,7 +32496,7 @@
         <v>-58170.79131563813</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -30897,7 +32529,7 @@
         <v>-12174.33091563812</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -30930,7 +32562,7 @@
         <v>31848.37908436188</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -30963,7 +32595,7 @@
         <v>21580.32878436187</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -30996,7 +32628,7 @@
         <v>21580.32878436187</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -31029,7 +32661,7 @@
         <v>-82240.70411563813</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -31062,7 +32694,7 @@
         <v>-157267.3949156381</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -31095,7 +32727,7 @@
         <v>-206355.1380156381</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -31260,7 +32892,7 @@
         <v>-191462.9602156381</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -31293,7 +32925,7 @@
         <v>-246317.9509156381</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -31326,7 +32958,7 @@
         <v>-246317.9509156381</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -31359,7 +32991,7 @@
         <v>-175288.0825156381</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -31392,7 +33024,7 @@
         <v>-175288.0825156381</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -31425,7 +33057,7 @@
         <v>-175288.0825156381</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -31458,7 +33090,7 @@
         <v>-246782.8824156381</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -31656,7 +33288,7 @@
         <v>932621.6194397944</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -31689,7 +33321,7 @@
         <v>939785.5154397944</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -31722,7 +33354,7 @@
         <v>940689.996727173</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -31755,7 +33387,7 @@
         <v>879989.9110520809</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -31788,7 +33420,7 @@
         <v>1012317.634652081</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -31821,7 +33453,7 @@
         <v>1010584.795352081</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -31854,7 +33486,7 @@
         <v>996042.280952081</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -31887,7 +33519,7 @@
         <v>996042.280952081</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -31920,7 +33552,7 @@
         <v>996352.280952081</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -31953,7 +33585,7 @@
         <v>1003413.542452081</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
